--- a/datenRF4/AFL/i=47,75 Fremdlüfter, Abtriebswelle=22/Prozesse_Stückliste_L2_S4_i47,75_Fremdlüfter.xlsx
+++ b/datenRF4/AFL/i=47,75 Fremdlüfter, Abtriebswelle=22/Prozesse_Stückliste_L2_S4_i47,75_Fremdlüfter.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="124">
   <si>
     <t>Sequenz</t>
   </si>
@@ -481,7 +481,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="33">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -891,11 +891,61 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -992,9 +1042,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1002,9 +1049,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1033,7 +1077,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1070,7 +1114,44 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1377,7 +1458,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1388,10 +1469,10 @@
   <dimension ref="A1:T93"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="8" ySplit="3" topLeftCell="J82" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="3" topLeftCell="I4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G79" sqref="G79"/>
+      <selection pane="bottomRight" activeCell="E90" sqref="E90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
@@ -1410,47 +1491,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15" thickBot="1">
-      <c r="A1" s="102" t="s">
+      <c r="A1" s="100" t="s">
         <v>120</v>
       </c>
-      <c r="B1" s="103"/>
-      <c r="C1" s="103"/>
-      <c r="D1" s="103"/>
-      <c r="E1" s="103"/>
-      <c r="F1" s="103"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="104" t="s">
+      <c r="B1" s="101"/>
+      <c r="C1" s="101"/>
+      <c r="D1" s="101"/>
+      <c r="E1" s="101"/>
+      <c r="F1" s="101"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="102" t="s">
         <v>121</v>
       </c>
-      <c r="I1" s="105"/>
-      <c r="J1" s="105"/>
-      <c r="K1" s="105"/>
-      <c r="L1" s="105"/>
-      <c r="M1" s="96" t="s">
+      <c r="I1" s="103"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="103"/>
+      <c r="L1" s="103"/>
+      <c r="M1" s="94" t="s">
         <v>122</v>
       </c>
-      <c r="N1" s="97"/>
-      <c r="O1" s="97"/>
-      <c r="P1" s="97"/>
-      <c r="Q1" s="97"/>
-      <c r="R1" s="97"/>
-      <c r="S1" s="97"/>
-      <c r="T1" s="97"/>
+      <c r="N1" s="95"/>
+      <c r="O1" s="95"/>
+      <c r="P1" s="95"/>
+      <c r="Q1" s="95"/>
+      <c r="R1" s="95"/>
+      <c r="S1" s="95"/>
+      <c r="T1" s="95"/>
     </row>
     <row r="2" spans="1:20" s="1" customFormat="1">
-      <c r="A2" s="98" t="s">
+      <c r="A2" s="96" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="99"/>
-      <c r="C2" s="100" t="s">
+      <c r="B2" s="97"/>
+      <c r="C2" s="98" t="s">
         <v>63</v>
       </c>
-      <c r="D2" s="101"/>
-      <c r="E2" s="106" t="s">
+      <c r="D2" s="99"/>
+      <c r="E2" s="104" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="106"/>
-      <c r="G2" s="107"/>
+      <c r="F2" s="104"/>
+      <c r="G2" s="105"/>
       <c r="H2" s="26"/>
       <c r="I2" s="26"/>
       <c r="J2" s="26"/>
@@ -1475,7 +1556,7 @@
       <c r="C3" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="D3" s="83" t="s">
+      <c r="D3" s="81" t="s">
         <v>68</v>
       </c>
       <c r="E3" s="29" t="s">
@@ -1484,7 +1565,7 @@
       <c r="F3" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="G3" s="94" t="s">
+      <c r="G3" s="92" t="s">
         <v>119</v>
       </c>
       <c r="H3" s="27" t="s">
@@ -1576,7 +1657,7 @@
       <c r="E5" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="F5" s="84" t="s">
+      <c r="F5" s="82" t="s">
         <v>96</v>
       </c>
       <c r="G5" s="15"/>
@@ -1625,13 +1706,13 @@
       <c r="D6" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="E6" s="67" t="s">
+      <c r="E6" s="66" t="s">
         <v>92</v>
       </c>
-      <c r="F6" s="85" t="s">
+      <c r="F6" s="83" t="s">
         <v>94</v>
       </c>
-      <c r="G6" s="68"/>
+      <c r="G6" s="67"/>
       <c r="H6" s="40"/>
       <c r="I6" s="40"/>
       <c r="J6" s="49"/>
@@ -1650,20 +1731,22 @@
       <c r="A7" s="16">
         <v>1</v>
       </c>
-      <c r="B7" s="64"/>
+      <c r="B7" s="110">
+        <v>3</v>
+      </c>
       <c r="C7" s="17">
         <v>1</v>
       </c>
       <c r="D7" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="E7" s="65" t="s">
+      <c r="E7" s="64" t="s">
         <v>93</v>
       </c>
-      <c r="F7" s="86" t="s">
+      <c r="F7" s="84" t="s">
         <v>95</v>
       </c>
-      <c r="G7" s="66">
+      <c r="G7" s="65">
         <v>23355</v>
       </c>
       <c r="H7" s="40"/>
@@ -1725,7 +1808,7 @@
       <c r="E9" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="F9" s="84" t="s">
+      <c r="F9" s="82" t="s">
         <v>118</v>
       </c>
       <c r="G9" s="15"/>
@@ -1777,7 +1860,7 @@
       <c r="E10" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="F10" s="87" t="s">
+      <c r="F10" s="85" t="s">
         <v>96</v>
       </c>
       <c r="G10" s="5"/>
@@ -1808,13 +1891,13 @@
       <c r="D11" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="E11" s="67" t="s">
+      <c r="E11" s="66" t="s">
         <v>92</v>
       </c>
-      <c r="F11" s="85" t="s">
+      <c r="F11" s="83" t="s">
         <v>94</v>
       </c>
-      <c r="G11" s="68"/>
+      <c r="G11" s="67"/>
       <c r="H11" s="40"/>
       <c r="I11" s="40"/>
       <c r="J11" s="40"/>
@@ -1830,23 +1913,25 @@
       <c r="T11" s="41"/>
     </row>
     <row r="12" spans="1:20">
-      <c r="A12" s="69">
-        <v>1</v>
-      </c>
-      <c r="B12" s="70"/>
-      <c r="C12" s="71">
-        <v>1</v>
-      </c>
-      <c r="D12" s="71" t="s">
-        <v>71</v>
-      </c>
-      <c r="E12" s="72" t="s">
+      <c r="A12" s="68">
+        <v>1</v>
+      </c>
+      <c r="B12" s="111">
+        <v>3</v>
+      </c>
+      <c r="C12" s="69">
+        <v>1</v>
+      </c>
+      <c r="D12" s="69" t="s">
+        <v>71</v>
+      </c>
+      <c r="E12" s="70" t="s">
         <v>93</v>
       </c>
-      <c r="F12" s="88" t="s">
+      <c r="F12" s="86" t="s">
         <v>95</v>
       </c>
-      <c r="G12" s="73">
+      <c r="G12" s="71">
         <v>23355</v>
       </c>
       <c r="H12" s="40"/>
@@ -1867,7 +1952,9 @@
       <c r="A13" s="10">
         <v>2</v>
       </c>
-      <c r="B13" s="11"/>
+      <c r="B13" s="112">
+        <v>3</v>
+      </c>
       <c r="C13" s="12">
         <v>2</v>
       </c>
@@ -1877,7 +1964,7 @@
       <c r="E13" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="F13" s="89" t="s">
+      <c r="F13" s="87" t="s">
         <v>73</v>
       </c>
       <c r="G13" s="14">
@@ -2142,7 +2229,7 @@
       <c r="E23" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="F23" s="84" t="s">
+      <c r="F23" s="82" t="s">
         <v>118</v>
       </c>
       <c r="G23" s="15"/>
@@ -2194,7 +2281,7 @@
       <c r="E24" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="F24" s="87" t="s">
+      <c r="F24" s="85" t="s">
         <v>96</v>
       </c>
       <c r="G24" s="5"/>
@@ -2225,13 +2312,13 @@
       <c r="D25" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="E25" s="67" t="s">
+      <c r="E25" s="66" t="s">
         <v>92</v>
       </c>
-      <c r="F25" s="85" t="s">
+      <c r="F25" s="83" t="s">
         <v>94</v>
       </c>
-      <c r="G25" s="68"/>
+      <c r="G25" s="67"/>
       <c r="H25" s="40"/>
       <c r="I25" s="40"/>
       <c r="J25" s="49"/>
@@ -2247,23 +2334,25 @@
       <c r="T25" s="41"/>
     </row>
     <row r="26" spans="1:20">
-      <c r="A26" s="69">
-        <v>1</v>
-      </c>
-      <c r="B26" s="70"/>
-      <c r="C26" s="71">
-        <v>1</v>
-      </c>
-      <c r="D26" s="71" t="s">
-        <v>71</v>
-      </c>
-      <c r="E26" s="72" t="s">
+      <c r="A26" s="68">
+        <v>1</v>
+      </c>
+      <c r="B26" s="111">
+        <v>3</v>
+      </c>
+      <c r="C26" s="69">
+        <v>1</v>
+      </c>
+      <c r="D26" s="69" t="s">
+        <v>71</v>
+      </c>
+      <c r="E26" s="70" t="s">
         <v>93</v>
       </c>
-      <c r="F26" s="88" t="s">
+      <c r="F26" s="86" t="s">
         <v>95</v>
       </c>
-      <c r="G26" s="73">
+      <c r="G26" s="71">
         <v>23355</v>
       </c>
       <c r="H26" s="40"/>
@@ -2284,7 +2373,9 @@
       <c r="A27" s="10">
         <v>2</v>
       </c>
-      <c r="B27" s="11"/>
+      <c r="B27" s="112">
+        <v>3</v>
+      </c>
       <c r="C27" s="12">
         <v>2</v>
       </c>
@@ -2294,7 +2385,7 @@
       <c r="E27" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="F27" s="89" t="s">
+      <c r="F27" s="87" t="s">
         <v>73</v>
       </c>
       <c r="G27" s="14">
@@ -2399,8 +2490,8 @@
       <c r="C31" s="18"/>
       <c r="D31" s="18"/>
       <c r="E31" s="18"/>
-      <c r="F31" s="82"/>
-      <c r="G31" s="82"/>
+      <c r="F31" s="80"/>
+      <c r="G31" s="80"/>
       <c r="H31" s="40">
         <v>7</v>
       </c>
@@ -2468,7 +2559,7 @@
       <c r="E33" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="F33" s="84" t="s">
+      <c r="F33" s="82" t="s">
         <v>118</v>
       </c>
       <c r="G33" s="15"/>
@@ -2520,7 +2611,7 @@
       <c r="E34" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="F34" s="87" t="s">
+      <c r="F34" s="85" t="s">
         <v>96</v>
       </c>
       <c r="G34" s="5"/>
@@ -2538,26 +2629,26 @@
       <c r="S34" s="40"/>
       <c r="T34" s="41"/>
     </row>
-    <row r="35" spans="1:20">
-      <c r="A35" s="2">
+    <row r="35" spans="1:20" ht="15" thickBot="1">
+      <c r="A35" s="114">
         <v>6</v>
       </c>
-      <c r="B35" s="6">
+      <c r="B35" s="115">
         <v>2</v>
       </c>
-      <c r="C35" s="4">
-        <v>1</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="E35" s="21" t="s">
+      <c r="C35" s="116">
+        <v>1</v>
+      </c>
+      <c r="D35" s="116" t="s">
+        <v>71</v>
+      </c>
+      <c r="E35" s="117" t="s">
         <v>92</v>
       </c>
-      <c r="F35" s="87" t="s">
+      <c r="F35" s="118" t="s">
         <v>94</v>
       </c>
-      <c r="G35" s="5"/>
+      <c r="G35" s="119"/>
       <c r="H35" s="40"/>
       <c r="I35" s="40"/>
       <c r="J35" s="49"/>
@@ -2573,23 +2664,25 @@
       <c r="T35" s="41"/>
     </row>
     <row r="36" spans="1:20">
-      <c r="A36" s="69">
-        <v>1</v>
-      </c>
-      <c r="B36" s="70"/>
-      <c r="C36" s="71">
-        <v>1</v>
-      </c>
-      <c r="D36" s="71" t="s">
-        <v>71</v>
-      </c>
-      <c r="E36" s="72" t="s">
+      <c r="A36" s="7">
+        <v>1</v>
+      </c>
+      <c r="B36" s="120">
+        <v>3</v>
+      </c>
+      <c r="C36" s="9">
+        <v>1</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E36" s="121" t="s">
         <v>93</v>
       </c>
-      <c r="F36" s="88" t="s">
+      <c r="F36" s="122" t="s">
         <v>95</v>
       </c>
-      <c r="G36" s="95">
+      <c r="G36" s="123">
         <v>23355</v>
       </c>
       <c r="H36" s="40"/>
@@ -2607,14 +2700,22 @@
       <c r="T36" s="41"/>
     </row>
     <row r="37" spans="1:20" ht="15" thickBot="1">
-      <c r="A37" s="31"/>
-      <c r="B37" s="32"/>
-      <c r="C37" s="32"/>
-      <c r="D37" s="32"/>
-      <c r="E37" s="108" t="s">
+      <c r="A37" s="31">
+        <v>2</v>
+      </c>
+      <c r="B37" s="113">
+        <v>3</v>
+      </c>
+      <c r="C37" s="32">
+        <v>6</v>
+      </c>
+      <c r="D37" s="107" t="s">
+        <v>71</v>
+      </c>
+      <c r="E37" s="93" t="s">
         <v>123</v>
       </c>
-      <c r="F37" s="92" t="s">
+      <c r="F37" s="90" t="s">
         <v>87</v>
       </c>
       <c r="G37" s="14">
@@ -2671,7 +2772,7 @@
       <c r="E39" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="F39" s="84" t="s">
+      <c r="F39" s="82" t="s">
         <v>118</v>
       </c>
       <c r="G39" s="15"/>
@@ -2719,7 +2820,7 @@
       <c r="E40" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="F40" s="87" t="s">
+      <c r="F40" s="85" t="s">
         <v>96</v>
       </c>
       <c r="G40" s="5"/>
@@ -2750,13 +2851,13 @@
       <c r="D41" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="E41" s="67" t="s">
+      <c r="E41" s="66" t="s">
         <v>92</v>
       </c>
-      <c r="F41" s="85" t="s">
+      <c r="F41" s="83" t="s">
         <v>94</v>
       </c>
-      <c r="G41" s="68"/>
+      <c r="G41" s="67"/>
       <c r="H41" s="40"/>
       <c r="I41" s="40"/>
       <c r="J41" s="49"/>
@@ -2772,23 +2873,25 @@
       <c r="T41" s="41"/>
     </row>
     <row r="42" spans="1:20">
-      <c r="A42" s="69">
-        <v>1</v>
-      </c>
-      <c r="B42" s="70"/>
-      <c r="C42" s="71">
-        <v>1</v>
-      </c>
-      <c r="D42" s="71" t="s">
-        <v>71</v>
-      </c>
-      <c r="E42" s="72" t="s">
+      <c r="A42" s="68">
+        <v>1</v>
+      </c>
+      <c r="B42" s="111">
+        <v>3</v>
+      </c>
+      <c r="C42" s="69">
+        <v>1</v>
+      </c>
+      <c r="D42" s="69" t="s">
+        <v>71</v>
+      </c>
+      <c r="E42" s="70" t="s">
         <v>93</v>
       </c>
-      <c r="F42" s="88" t="s">
+      <c r="F42" s="86" t="s">
         <v>95</v>
       </c>
-      <c r="G42" s="73">
+      <c r="G42" s="71">
         <v>23355</v>
       </c>
       <c r="H42" s="40"/>
@@ -2806,14 +2909,22 @@
       <c r="T42" s="41"/>
     </row>
     <row r="43" spans="1:20" ht="15" thickBot="1">
-      <c r="A43" s="31"/>
-      <c r="B43" s="32"/>
-      <c r="C43" s="32"/>
-      <c r="D43" s="32"/>
-      <c r="E43" s="108" t="s">
+      <c r="A43" s="31">
+        <v>2</v>
+      </c>
+      <c r="B43" s="113">
+        <v>3</v>
+      </c>
+      <c r="C43" s="32">
+        <v>1</v>
+      </c>
+      <c r="D43" s="107" t="s">
+        <v>71</v>
+      </c>
+      <c r="E43" s="93" t="s">
         <v>123</v>
       </c>
-      <c r="F43" s="92" t="s">
+      <c r="F43" s="90" t="s">
         <v>87</v>
       </c>
       <c r="G43" s="14">
@@ -2928,7 +3039,7 @@
       <c r="E47" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="F47" s="84" t="s">
+      <c r="F47" s="82" t="s">
         <v>118</v>
       </c>
       <c r="G47" s="15"/>
@@ -2982,7 +3093,7 @@
       <c r="E48" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="F48" s="87" t="s">
+      <c r="F48" s="85" t="s">
         <v>96</v>
       </c>
       <c r="G48" s="5"/>
@@ -3013,13 +3124,13 @@
       <c r="D49" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="E49" s="67" t="s">
+      <c r="E49" s="66" t="s">
         <v>92</v>
       </c>
-      <c r="F49" s="85" t="s">
+      <c r="F49" s="83" t="s">
         <v>94</v>
       </c>
-      <c r="G49" s="68"/>
+      <c r="G49" s="67"/>
       <c r="H49" s="40"/>
       <c r="I49" s="40"/>
       <c r="J49" s="49"/>
@@ -3035,23 +3146,25 @@
       <c r="T49" s="41"/>
     </row>
     <row r="50" spans="1:20">
-      <c r="A50" s="69">
-        <v>1</v>
-      </c>
-      <c r="B50" s="70"/>
-      <c r="C50" s="71">
-        <v>1</v>
-      </c>
-      <c r="D50" s="71" t="s">
-        <v>71</v>
-      </c>
-      <c r="E50" s="72" t="s">
+      <c r="A50" s="68">
+        <v>1</v>
+      </c>
+      <c r="B50" s="111">
+        <v>3</v>
+      </c>
+      <c r="C50" s="69">
+        <v>1</v>
+      </c>
+      <c r="D50" s="69" t="s">
+        <v>71</v>
+      </c>
+      <c r="E50" s="70" t="s">
         <v>93</v>
       </c>
-      <c r="F50" s="88" t="s">
+      <c r="F50" s="86" t="s">
         <v>95</v>
       </c>
-      <c r="G50" s="73">
+      <c r="G50" s="71">
         <v>23355</v>
       </c>
       <c r="H50" s="40"/>
@@ -3069,14 +3182,22 @@
       <c r="T50" s="41"/>
     </row>
     <row r="51" spans="1:20" ht="15" thickBot="1">
-      <c r="A51" s="31"/>
-      <c r="B51" s="32"/>
-      <c r="C51" s="32"/>
-      <c r="D51" s="32"/>
-      <c r="E51" s="108" t="s">
+      <c r="A51" s="31">
+        <v>2</v>
+      </c>
+      <c r="B51" s="113">
+        <v>3</v>
+      </c>
+      <c r="C51" s="32">
+        <v>1</v>
+      </c>
+      <c r="D51" s="107" t="s">
+        <v>71</v>
+      </c>
+      <c r="E51" s="93" t="s">
         <v>123</v>
       </c>
-      <c r="F51" s="92" t="s">
+      <c r="F51" s="90" t="s">
         <v>87</v>
       </c>
       <c r="G51" s="14">
@@ -3238,7 +3359,7 @@
       <c r="E58" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="F58" s="84" t="s">
+      <c r="F58" s="82" t="s">
         <v>118</v>
       </c>
       <c r="G58" s="15"/>
@@ -3290,7 +3411,7 @@
       <c r="E59" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="F59" s="87" t="s">
+      <c r="F59" s="85" t="s">
         <v>96</v>
       </c>
       <c r="G59" s="5"/>
@@ -3324,7 +3445,7 @@
       <c r="E60" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="F60" s="87" t="s">
+      <c r="F60" s="85" t="s">
         <v>94</v>
       </c>
       <c r="G60" s="5"/>
@@ -3343,17 +3464,25 @@
       <c r="T60" s="41"/>
     </row>
     <row r="61" spans="1:20" ht="15" thickBot="1">
-      <c r="A61" s="31"/>
-      <c r="B61" s="32"/>
-      <c r="C61" s="32"/>
-      <c r="D61" s="32"/>
+      <c r="A61" s="31">
+        <v>7</v>
+      </c>
+      <c r="B61" s="124">
+        <v>2</v>
+      </c>
+      <c r="C61" s="32">
+        <v>1</v>
+      </c>
+      <c r="D61" s="107" t="s">
+        <v>71</v>
+      </c>
       <c r="E61" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="F61" s="85" t="s">
+      <c r="F61" s="83" t="s">
         <v>94</v>
       </c>
-      <c r="G61" s="68"/>
+      <c r="G61" s="67"/>
       <c r="H61" s="40"/>
       <c r="I61" s="40"/>
       <c r="J61" s="49"/>
@@ -3369,17 +3498,25 @@
       <c r="T61" s="41"/>
     </row>
     <row r="62" spans="1:20" ht="15" thickBot="1">
-      <c r="A62" s="74"/>
-      <c r="B62" s="75"/>
-      <c r="C62" s="75"/>
-      <c r="D62" s="75"/>
-      <c r="E62" s="76" t="s">
+      <c r="A62" s="72">
+        <v>1</v>
+      </c>
+      <c r="B62" s="73">
+        <v>3</v>
+      </c>
+      <c r="C62" s="73">
+        <v>1</v>
+      </c>
+      <c r="D62" s="109" t="s">
+        <v>71</v>
+      </c>
+      <c r="E62" s="74" t="s">
         <v>89</v>
       </c>
-      <c r="F62" s="90" t="s">
+      <c r="F62" s="88" t="s">
         <v>99</v>
       </c>
-      <c r="G62" s="77">
+      <c r="G62" s="75">
         <v>21131</v>
       </c>
       <c r="H62" s="40"/>
@@ -3462,7 +3599,7 @@
       <c r="E65" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="F65" s="84" t="s">
+      <c r="F65" s="82" t="s">
         <v>118</v>
       </c>
       <c r="G65" s="15"/>
@@ -3514,7 +3651,7 @@
       <c r="E66" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="F66" s="87" t="s">
+      <c r="F66" s="85" t="s">
         <v>96</v>
       </c>
       <c r="G66" s="5"/>
@@ -3548,7 +3685,7 @@
       <c r="E67" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="F67" s="87" t="s">
+      <c r="F67" s="85" t="s">
         <v>94</v>
       </c>
       <c r="G67" s="5"/>
@@ -3567,17 +3704,25 @@
       <c r="T67" s="41"/>
     </row>
     <row r="68" spans="1:20" ht="15" thickBot="1">
-      <c r="A68" s="31"/>
-      <c r="B68" s="32"/>
-      <c r="C68" s="32"/>
-      <c r="D68" s="32"/>
+      <c r="A68" s="31">
+        <v>7</v>
+      </c>
+      <c r="B68" s="124">
+        <v>2</v>
+      </c>
+      <c r="C68" s="32">
+        <v>1</v>
+      </c>
+      <c r="D68" s="107" t="s">
+        <v>71</v>
+      </c>
       <c r="E68" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="F68" s="85" t="s">
+      <c r="F68" s="83" t="s">
         <v>98</v>
       </c>
-      <c r="G68" s="68"/>
+      <c r="G68" s="67"/>
       <c r="H68" s="40"/>
       <c r="I68" s="40"/>
       <c r="J68" s="49"/>
@@ -3593,17 +3738,25 @@
       <c r="T68" s="41"/>
     </row>
     <row r="69" spans="1:20">
-      <c r="A69" s="78"/>
-      <c r="B69" s="79"/>
-      <c r="C69" s="79"/>
-      <c r="D69" s="79"/>
-      <c r="E69" s="80" t="s">
+      <c r="A69" s="76">
+        <v>1</v>
+      </c>
+      <c r="B69" s="77">
+        <v>3</v>
+      </c>
+      <c r="C69" s="77">
+        <v>1</v>
+      </c>
+      <c r="D69" s="108" t="s">
+        <v>71</v>
+      </c>
+      <c r="E69" s="78" t="s">
         <v>89</v>
       </c>
-      <c r="F69" s="91" t="s">
+      <c r="F69" s="89" t="s">
         <v>99</v>
       </c>
-      <c r="G69" s="81">
+      <c r="G69" s="79">
         <v>21131</v>
       </c>
       <c r="H69" s="40"/>
@@ -3621,14 +3774,22 @@
       <c r="T69" s="41"/>
     </row>
     <row r="70" spans="1:20" ht="15" thickBot="1">
-      <c r="A70" s="31"/>
-      <c r="B70" s="32"/>
-      <c r="C70" s="32"/>
-      <c r="D70" s="32"/>
+      <c r="A70" s="31">
+        <v>2</v>
+      </c>
+      <c r="B70" s="32">
+        <v>3</v>
+      </c>
+      <c r="C70" s="32">
+        <v>4</v>
+      </c>
+      <c r="D70" s="107" t="s">
+        <v>71</v>
+      </c>
       <c r="E70" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="F70" s="92" t="s">
+      <c r="F70" s="90" t="s">
         <v>100</v>
       </c>
       <c r="G70" s="36">
@@ -3751,7 +3912,7 @@
       <c r="E74" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="F74" s="84" t="s">
+      <c r="F74" s="82" t="s">
         <v>118</v>
       </c>
       <c r="G74" s="15"/>
@@ -3803,7 +3964,7 @@
       <c r="E75" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="F75" s="87" t="s">
+      <c r="F75" s="85" t="s">
         <v>96</v>
       </c>
       <c r="G75" s="5"/>
@@ -3837,7 +3998,7 @@
       <c r="E76" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="F76" s="87" t="s">
+      <c r="F76" s="85" t="s">
         <v>94</v>
       </c>
       <c r="G76" s="5"/>
@@ -3856,17 +4017,25 @@
       <c r="T76" s="41"/>
     </row>
     <row r="77" spans="1:20" ht="15" thickBot="1">
-      <c r="A77" s="31"/>
-      <c r="B77" s="32"/>
-      <c r="C77" s="32"/>
-      <c r="D77" s="32"/>
+      <c r="A77" s="31">
+        <v>7</v>
+      </c>
+      <c r="B77" s="124">
+        <v>2</v>
+      </c>
+      <c r="C77" s="32">
+        <v>1</v>
+      </c>
+      <c r="D77" s="107" t="s">
+        <v>71</v>
+      </c>
       <c r="E77" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="F77" s="85" t="s">
+      <c r="F77" s="83" t="s">
         <v>98</v>
       </c>
-      <c r="G77" s="68"/>
+      <c r="G77" s="67"/>
       <c r="H77" s="40"/>
       <c r="I77" s="40"/>
       <c r="J77" s="49"/>
@@ -3882,17 +4051,25 @@
       <c r="T77" s="41"/>
     </row>
     <row r="78" spans="1:20">
-      <c r="A78" s="78"/>
-      <c r="B78" s="79"/>
-      <c r="C78" s="79"/>
-      <c r="D78" s="79"/>
-      <c r="E78" s="80" t="s">
+      <c r="A78" s="76">
+        <v>1</v>
+      </c>
+      <c r="B78" s="77">
+        <v>3</v>
+      </c>
+      <c r="C78" s="77">
+        <v>1</v>
+      </c>
+      <c r="D78" s="108" t="s">
+        <v>71</v>
+      </c>
+      <c r="E78" s="78" t="s">
         <v>89</v>
       </c>
-      <c r="F78" s="91" t="s">
+      <c r="F78" s="89" t="s">
         <v>99</v>
       </c>
-      <c r="G78" s="81">
+      <c r="G78" s="79">
         <v>21131</v>
       </c>
       <c r="H78" s="40"/>
@@ -3910,14 +4087,22 @@
       <c r="T78" s="41"/>
     </row>
     <row r="79" spans="1:20" ht="15" thickBot="1">
-      <c r="A79" s="31"/>
-      <c r="B79" s="32"/>
-      <c r="C79" s="32"/>
-      <c r="D79" s="32"/>
+      <c r="A79" s="31">
+        <v>2</v>
+      </c>
+      <c r="B79" s="32">
+        <v>3</v>
+      </c>
+      <c r="C79" s="32">
+        <v>4</v>
+      </c>
+      <c r="D79" s="107" t="s">
+        <v>71</v>
+      </c>
       <c r="E79" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="F79" s="92" t="s">
+      <c r="F79" s="90" t="s">
         <v>100</v>
       </c>
       <c r="G79" s="36">
@@ -4098,7 +4283,7 @@
       <c r="E85" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="F85" s="84" t="s">
+      <c r="F85" s="82" t="s">
         <v>118</v>
       </c>
       <c r="G85" s="15"/>
@@ -4150,7 +4335,7 @@
       <c r="E86" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="F86" s="87" t="s">
+      <c r="F86" s="85" t="s">
         <v>96</v>
       </c>
       <c r="G86" s="5"/>
@@ -4184,7 +4369,7 @@
       <c r="E87" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="F87" s="87" t="s">
+      <c r="F87" s="85" t="s">
         <v>94</v>
       </c>
       <c r="G87" s="5"/>
@@ -4203,14 +4388,22 @@
       <c r="T87" s="41"/>
     </row>
     <row r="88" spans="1:20">
-      <c r="A88" s="34"/>
-      <c r="B88" s="30"/>
-      <c r="C88" s="30"/>
-      <c r="D88" s="30"/>
+      <c r="A88" s="34">
+        <v>7</v>
+      </c>
+      <c r="B88" s="125">
+        <v>2</v>
+      </c>
+      <c r="C88" s="30">
+        <v>1</v>
+      </c>
+      <c r="D88" s="106" t="s">
+        <v>71</v>
+      </c>
       <c r="E88" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="F88" s="87" t="s">
+      <c r="F88" s="85" t="s">
         <v>98</v>
       </c>
       <c r="G88" s="5"/>
@@ -4229,14 +4422,22 @@
       <c r="T88" s="41"/>
     </row>
     <row r="89" spans="1:20" ht="15" thickBot="1">
-      <c r="A89" s="31"/>
-      <c r="B89" s="32"/>
-      <c r="C89" s="32"/>
-      <c r="D89" s="32"/>
+      <c r="A89" s="31">
+        <v>8</v>
+      </c>
+      <c r="B89" s="124">
+        <v>2</v>
+      </c>
+      <c r="C89" s="32">
+        <v>1</v>
+      </c>
+      <c r="D89" s="107" t="s">
+        <v>71</v>
+      </c>
       <c r="E89" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="F89" s="92" t="s">
+      <c r="F89" s="90" t="s">
         <v>101</v>
       </c>
       <c r="G89" s="36">
